--- a/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4118,4 +4119,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5467,4 +5468,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6056,4 +6057,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6065,7 +6066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6076,17 +6077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6096,14 +6117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.88</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6112,14 +6155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.47</v>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6128,14 +6193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.53</v>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6144,13 +6231,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>56</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.550000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6274,7 +6275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6285,17 +6286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6305,14 +6326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6321,14 +6364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.88</v>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6337,14 +6402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.47</v>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6353,14 +6440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.53</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6369,13 +6478,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>56</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.550000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600409-三友化工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6711,7 +6712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6722,17 +6723,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6742,14 +6763,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.98</v>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6758,14 +6801,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6774,14 +6839,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.88</v>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6790,14 +6877,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.47</v>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6806,14 +6915,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.53</v>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6822,13 +6953,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>56</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.550000000000001</v>
       </c>
     </row>
